--- a/OnlineWallet_TestCases_Postman.xlsx
+++ b/OnlineWallet_TestCases_Postman.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capgemini Training\Online Wallet\Sprint-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo\OnlineWallet-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4DEBA-85FA-46C2-A392-39B486CF52A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1583CC-8D2C-44B9-9E54-9C0366F71E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{737BDB55-D322-494A-8AFE-28BDE7E8B31A}"/>
   </bookViews>
@@ -108,18 +108,10 @@
     <t>Functional</t>
   </si>
   <si>
-    <t>localhost:8082</t>
-  </si>
-  <si>
     <t>WORKING</t>
   </si>
   <si>
     <t>sat@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter port number
-localhost:8082
-</t>
   </si>
   <si>
     <t>Enter username, password,phone number, email
@@ -199,6 +191,14 @@
   </si>
   <si>
     <t>Display Admin login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter port number
+localhost:8082/home
+</t>
+  </si>
+  <si>
+    <t>localhost:8082/home</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40504185-DE19-4BEE-8400-1249D52673BB}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,19 +707,19 @@
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
@@ -731,19 +731,19 @@
     <row r="6" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -755,16 +755,16 @@
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
@@ -782,13 +782,13 @@
         <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
@@ -808,10 +808,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="8">
         <v>1500</v>
@@ -831,10 +831,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8">
         <v>1500</v>
@@ -854,13 +854,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -871,19 +871,19 @@
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
